--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_57.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_57.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,710 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[('0:00:09.620000', '0:00:14.180000'), ('0:00:01.880000', '0:00:06.560000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:13.420000', '0:00:19.500000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:51.920000', '0:01:55.360000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09855072463768116</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['B:dim7', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(38.12, 52.64)]</t>
+          <t>[['C:dim7', 'C#:maj', 'F#:maj/A#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[('0:00:17.769637', '0:00:22.996281')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:15.840000', '0:00:18.660000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(94.06, 105.58)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4131944444444444</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(11.06, 66.82)]</t>
+          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[('0:02:06.506000', '0:02:32.302000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:16.132993', '0:01:19.523105')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:38.900000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:01:47.100000', '0:01:49.300000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(123.22, 127.58)]</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(5.88, 12.78)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(21.44, 24.72)]</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(42.14, 44.36)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.72, 26.46)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
